--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_163.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_163.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,706 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(116.7, 122.32)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(112.24, 117.7)]</t>
+          <t>[('0:01:10.060000', '0:01:27.320000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1120923913043478</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_124</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3611111111111111</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(40.34, 42.74)]</t>
+          <t>[['F', 'Bb', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(55.002834, 59.124376)]</t>
+          <t>[('0:00:55.580000', '0:01:06.200000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>[('0:00:15.124263', '0:00:21.811609')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(17.34, 24.4)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.465952, 5.272756)]</t>
+          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>[('0:00:24.520000', '0:00:47.240000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:05.700000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3862612612612613</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['Eb', 'Bb', 'Eb', 'Bb', 'Ab', 'Eb', 'Bb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (13.12, 19.96)]</t>
+          <t>[['D', 'A', 'D', 'A', 'G/2', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46), (0.24, 5.08)]</t>
+          <t>[('0:01:04.139886', '0:01:16.701882')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:28.427959', '0:01:44.287188')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['F/2', 'C', 'F'], ['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(100.24, 104.56)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(118.78, 126.08)]</t>
+          <t>[('0:00:57.758000', '0:01:04.527000'), ('0:00:05.121000', '0:00:12.601000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:14.840000', '0:02:17.480000'), ('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(7.7, 18.64)]</t>
+          <t>[('0:00:16.260000', '0:00:21.140000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:34.940000', '0:00:36.860000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:06.740000', '0:01:13.840000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(10.12, 35.88)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(37.76, 53.02)]</t>
+          <t>[('0:00:07.020000', '0:00:15.100000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:19.360000', '0:00:22.380000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D#:7', 'G#:maj/D#', 'D#:7', 'G#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(108.54, 120.72)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(83.76, 92.66)]</t>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>schubert-winterreise_71</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min']]</t>
-        </is>
+      <c r="D12" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(10.12, 35.88)]</t>
+          <t>[['C:min', 'G:7', 'C:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(41.78, 56.28)]</t>
+          <t>[('0:00:03.820000', '0:00:08.620000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:00:10.120000', '0:00:27.180000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(23.42, 33.96)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(44.2, 54.16)]</t>
+          <t>[('0:01:23.100000', '0:01:30.020000'), ('0:00:13.500000', '0:00:21.900000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>[('0:00:09.780000', '0:00:14.360000'), ('0:00:01.540000', '0:00:06.680000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[('0:00:00.380000', '0:00:21.840000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.700000', '0:00:21.420000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(7.36, 16.52)]</t>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(93.0, 103.28)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(109.44, 123.14)]</t>
+          <t>[('0:00:05.440000', '0:01:53.760000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:05', '0:01:54.060000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(6.92, 13.46)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(16.52, 25.4)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
